--- a/画面設計/【画面設計】11_ユーザ管理画面(お気に入り料理の管理画面).xlsx
+++ b/画面設計/【画面設計】11_ユーザ管理画面(お気に入り料理の管理画面).xlsx
@@ -579,11 +579,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5334000" cy="6791325"/>
+    <xdr:ext cx="5095875" cy="5191125"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
@@ -592,9 +592,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="152400"/>
-          <a:ext cx="5314950" cy="6772275"/>
+          <a:ext cx="5581650" cy="5676900"/>
           <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="5314950" cy="6772275"/>
+          <a:chExt cx="5581650" cy="5676900"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -613,7 +613,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="5314950" cy="6772275"/>
+            <a:ext cx="5581650" cy="5676900"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>

--- a/画面設計/【画面設計】11_ユーザ管理画面(お気に入り料理の管理画面).xlsx
+++ b/画面設計/【画面設計】11_ユーザ管理画面(お気に入り料理の管理画面).xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="ZWv3oDh7sU/dk4q+W5W7N3zYWHUx6LzJQUsotOcQFys="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="DxpPfNcfVVTHBt8/VvDIJn82Gk8sYRbQVuzLbAGGi4I="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -87,6 +87,13 @@
   </si>
   <si>
     <t>2.【機能概要】</t>
+  </si>
+  <si>
+    <t>ユーザ管理画面(トップ)のタブ「お気に入りの料理の管理」を切り替えることで表示される。
+ログインユーザに紐づく、お気に入りされた料理を表示すること。
+料理の追加は「04_レシピ表示画面（HTML)」でしかできず、当画面では追加は不可。
+行をクリックすることで次画面（04_レシピ表示画面（HTML)）へ遷移する。
+行を右スライドすることで削除ボタンを表示させ、削除でき、お気に入り料理の編集ができること。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -446,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -3223,7 +3230,9 @@
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="29"/>
+      <c r="B40" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -3274,13 +3283,8 @@
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
+      <c r="B42" s="30"/>
+      <c r="H42" s="31"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -3302,13 +3306,8 @@
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="B43" s="30"/>
+      <c r="H43" s="31"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -3330,15 +3329,13 @@
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3360,15 +3357,9 @@
     </row>
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>26</v>
-      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3394,9 +3385,11 @@
     </row>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
+      <c r="B46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3422,9 +3415,15 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="36"/>
+      <c r="B47" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -3450,9 +3449,9 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -3478,9 +3477,9 @@
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -3506,11 +3505,9 @@
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -3536,13 +3533,9 @@
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="20"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -3566,11 +3559,13 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" ht="33.75" customHeight="1">
+    <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="20"/>
+      <c r="B52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -3594,11 +3589,15 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
     </row>
-    <row r="53" ht="62.25" customHeight="1">
+    <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="9"/>
+      <c r="B53" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="20"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -3624,8 +3623,8 @@
     </row>
     <row r="54" ht="33.75" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="44"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="20"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -3650,10 +3649,10 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" ht="33.75" customHeight="1">
+    <row r="55" ht="62.25" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="45"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="9"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -3680,9 +3679,9 @@
     </row>
     <row r="56" ht="33.75" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="9"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -3706,11 +3705,11 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" ht="16.5" customHeight="1">
+    <row r="57" ht="33.75" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -3734,18 +3733,14 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" ht="16.5" customHeight="1">
+    <row r="58" ht="33.75" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -3768,16 +3763,12 @@
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -3800,32 +3791,20 @@
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="32" t="s">
-        <v>33</v>
+      <c r="B60" s="6" t="s">
+        <v>31</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>35</v>
-      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="32" t="s">
-        <v>36</v>
+      <c r="G60" s="6" t="s">
+        <v>32</v>
       </c>
-      <c r="H60" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I60" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J60" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K60" s="32" t="s">
-        <v>35</v>
-      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -3842,18 +3821,22 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
     </row>
-    <row r="61" ht="109.5" customHeight="1">
+    <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="48"/>
+      <c r="B61" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
+      <c r="G61" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -3872,16 +3855,32 @@
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+      <c r="B62" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>36</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
+      <c r="G62" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" s="32" t="s">
+        <v>36</v>
+      </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -3898,94 +3897,78 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="24"/>
-      <c r="B63" s="50" t="s">
-        <v>38</v>
+    <row r="63" ht="109.5" customHeight="1">
+      <c r="A63" s="6"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c r="A65" s="24"/>
+      <c r="B65" s="50" t="s">
+        <v>39</v>
       </c>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="50" t="s">
-        <v>38</v>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="50" t="s">
+        <v>39</v>
       </c>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="24"/>
-      <c r="W63" s="24"/>
-      <c r="X63" s="24"/>
-      <c r="Y63" s="24"/>
-      <c r="Z63" s="24"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c r="A64" s="51"/>
-      <c r="B64" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="H64" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="I64" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="J64" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="K64" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="24"/>
-      <c r="W64" s="24"/>
-      <c r="X64" s="24"/>
-      <c r="Y64" s="24"/>
-      <c r="Z64" s="24"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="51"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
       <c r="L65" s="24"/>
       <c r="M65" s="24"/>
       <c r="N65" s="24"/>
@@ -4002,18 +3985,34 @@
       <c r="Y65" s="24"/>
       <c r="Z65" s="24"/>
     </row>
-    <row r="66" ht="27.75" customHeight="1">
+    <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="51"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
+      <c r="B66" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>36</v>
+      </c>
       <c r="E66" s="24"/>
       <c r="F66" s="51"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
+      <c r="G66" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" s="52" t="s">
+        <v>36</v>
+      </c>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
       <c r="N66" s="24"/>
@@ -4058,11 +4057,11 @@
       <c r="Y67" s="24"/>
       <c r="Z67" s="24"/>
     </row>
-    <row r="68" ht="24.0" customHeight="1">
+    <row r="68" ht="27.75" customHeight="1">
       <c r="A68" s="51"/>
       <c r="B68" s="56"/>
       <c r="C68" s="54"/>
-      <c r="D68" s="36"/>
+      <c r="D68" s="54"/>
       <c r="E68" s="24"/>
       <c r="F68" s="51"/>
       <c r="G68" s="54"/>
@@ -4086,18 +4085,18 @@
       <c r="Y68" s="24"/>
       <c r="Z68" s="24"/>
     </row>
-    <row r="69" ht="36.75" customHeight="1">
-      <c r="A69" s="24"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
+    <row r="69" ht="16.5" customHeight="1">
+      <c r="A69" s="51"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
       <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55"/>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
       <c r="N69" s="24"/>
@@ -4114,34 +4113,18 @@
       <c r="Y69" s="24"/>
       <c r="Z69" s="24"/>
     </row>
-    <row r="70" ht="16.5" customHeight="1">
+    <row r="70" ht="24.0" customHeight="1">
       <c r="A70" s="51"/>
-      <c r="B70" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D70" s="52" t="s">
-        <v>35</v>
-      </c>
+      <c r="B70" s="56"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="36"/>
       <c r="E70" s="24"/>
       <c r="F70" s="51"/>
-      <c r="G70" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="I70" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="J70" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="K70" s="52" t="s">
-        <v>35</v>
-      </c>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
       <c r="L70" s="24"/>
       <c r="M70" s="24"/>
       <c r="N70" s="24"/>
@@ -4158,18 +4141,18 @@
       <c r="Y70" s="24"/>
       <c r="Z70" s="24"/>
     </row>
-    <row r="71" ht="35.25" customHeight="1">
-      <c r="A71" s="51"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="57"/>
+    <row r="71" ht="36.75" customHeight="1">
+      <c r="A71" s="24"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
       <c r="E71" s="24"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="55"/>
-      <c r="K71" s="55"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
       <c r="N71" s="24"/>
@@ -4187,17 +4170,33 @@
       <c r="Z71" s="24"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>36</v>
+      </c>
       <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="52" t="s">
+        <v>36</v>
+      </c>
       <c r="L72" s="24"/>
       <c r="M72" s="24"/>
       <c r="N72" s="24"/>
@@ -4214,22 +4213,18 @@
       <c r="Y72" s="24"/>
       <c r="Z72" s="24"/>
     </row>
-    <row r="73" ht="21.0" customHeight="1">
-      <c r="A73" s="24"/>
-      <c r="B73" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
+    <row r="73" ht="35.25" customHeight="1">
+      <c r="A73" s="51"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="57"/>
       <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55"/>
       <c r="L73" s="24"/>
       <c r="M73" s="24"/>
       <c r="N73" s="24"/>
@@ -4247,33 +4242,17 @@
       <c r="Z73" s="24"/>
     </row>
     <row r="74" ht="16.5" customHeight="1">
-      <c r="A74" s="51"/>
-      <c r="B74" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" s="52" t="s">
-        <v>35</v>
-      </c>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="24"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="H74" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="I74" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="J74" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="K74" s="52" t="s">
-        <v>35</v>
-      </c>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
       <c r="N74" s="24"/>
@@ -4290,18 +4269,22 @@
       <c r="Y74" s="24"/>
       <c r="Z74" s="24"/>
     </row>
-    <row r="75" ht="48.75" customHeight="1">
-      <c r="A75" s="51"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="57"/>
+    <row r="75" ht="21.0" customHeight="1">
+      <c r="A75" s="24"/>
+      <c r="B75" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
       <c r="E75" s="24"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="55"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
       <c r="N75" s="24"/>
@@ -4318,18 +4301,34 @@
       <c r="Y75" s="24"/>
       <c r="Z75" s="24"/>
     </row>
-    <row r="76" ht="18.75" customHeight="1">
+    <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="51"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
+      <c r="B76" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>36</v>
+      </c>
       <c r="E76" s="24"/>
       <c r="F76" s="51"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55"/>
-      <c r="K76" s="55"/>
+      <c r="G76" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I76" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" s="52" t="s">
+        <v>36</v>
+      </c>
       <c r="L76" s="24"/>
       <c r="M76" s="24"/>
       <c r="N76" s="24"/>
@@ -4346,18 +4345,18 @@
       <c r="Y76" s="24"/>
       <c r="Z76" s="24"/>
     </row>
-    <row r="77" ht="26.25" customHeight="1">
+    <row r="77" ht="48.75" customHeight="1">
       <c r="A77" s="51"/>
-      <c r="B77" s="54"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="54"/>
       <c r="D77" s="57"/>
       <c r="E77" s="24"/>
       <c r="F77" s="51"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55"/>
       <c r="L77" s="24"/>
       <c r="M77" s="24"/>
       <c r="N77" s="24"/>
@@ -4374,7 +4373,7 @@
       <c r="Y77" s="24"/>
       <c r="Z77" s="24"/>
     </row>
-    <row r="78" ht="19.5" customHeight="1">
+    <row r="78" ht="18.75" customHeight="1">
       <c r="A78" s="51"/>
       <c r="B78" s="53"/>
       <c r="C78" s="54"/>
@@ -4402,7 +4401,7 @@
       <c r="Y78" s="24"/>
       <c r="Z78" s="24"/>
     </row>
-    <row r="79" ht="32.25" customHeight="1">
+    <row r="79" ht="26.25" customHeight="1">
       <c r="A79" s="51"/>
       <c r="B79" s="54"/>
       <c r="C79" s="54"/>
@@ -4430,11 +4429,11 @@
       <c r="Y79" s="24"/>
       <c r="Z79" s="24"/>
     </row>
-    <row r="80" ht="21.75" customHeight="1">
+    <row r="80" ht="19.5" customHeight="1">
       <c r="A80" s="51"/>
       <c r="B80" s="53"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="59"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
       <c r="E80" s="24"/>
       <c r="F80" s="51"/>
       <c r="G80" s="55"/>
@@ -4458,11 +4457,11 @@
       <c r="Y80" s="24"/>
       <c r="Z80" s="24"/>
     </row>
-    <row r="81" ht="35.25" customHeight="1">
+    <row r="81" ht="32.25" customHeight="1">
       <c r="A81" s="51"/>
       <c r="B81" s="54"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="60"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="57"/>
       <c r="E81" s="24"/>
       <c r="F81" s="51"/>
       <c r="G81" s="54"/>
@@ -4489,8 +4488,8 @@
     <row r="82" ht="21.75" customHeight="1">
       <c r="A82" s="51"/>
       <c r="B82" s="53"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="54"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="59"/>
       <c r="E82" s="24"/>
       <c r="F82" s="51"/>
       <c r="G82" s="55"/>
@@ -4514,11 +4513,11 @@
       <c r="Y82" s="24"/>
       <c r="Z82" s="24"/>
     </row>
-    <row r="83" ht="27.75" customHeight="1">
+    <row r="83" ht="35.25" customHeight="1">
       <c r="A83" s="51"/>
       <c r="B83" s="54"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="57"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="60"/>
       <c r="E83" s="24"/>
       <c r="F83" s="51"/>
       <c r="G83" s="54"/>
@@ -4544,9 +4543,9 @@
     </row>
     <row r="84" ht="21.75" customHeight="1">
       <c r="A84" s="51"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="59"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
       <c r="E84" s="24"/>
       <c r="F84" s="51"/>
       <c r="G84" s="55"/>
@@ -4572,16 +4571,16 @@
     </row>
     <row r="85" ht="27.75" customHeight="1">
       <c r="A85" s="51"/>
-      <c r="B85" s="62"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="63"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="57"/>
       <c r="E85" s="24"/>
       <c r="F85" s="51"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="62"/>
-      <c r="J85" s="62"/>
-      <c r="K85" s="62"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
       <c r="L85" s="24"/>
       <c r="M85" s="24"/>
       <c r="N85" s="24"/>
@@ -4598,61 +4597,61 @@
       <c r="Y85" s="24"/>
       <c r="Z85" s="24"/>
     </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
+    <row r="86" ht="21.75" customHeight="1">
+      <c r="A86" s="51"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="24"/>
+      <c r="U86" s="24"/>
+      <c r="V86" s="24"/>
+      <c r="W86" s="24"/>
+      <c r="X86" s="24"/>
+      <c r="Y86" s="24"/>
+      <c r="Z86" s="24"/>
+    </row>
+    <row r="87" ht="27.75" customHeight="1">
+      <c r="A87" s="51"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24"/>
+      <c r="T87" s="24"/>
+      <c r="U87" s="24"/>
+      <c r="V87" s="24"/>
+      <c r="W87" s="24"/>
+      <c r="X87" s="24"/>
+      <c r="Y87" s="24"/>
+      <c r="Z87" s="24"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="6"/>
@@ -30078,17 +30077,73 @@
       <c r="Y995" s="6"/>
       <c r="Z995" s="6"/>
     </row>
+    <row r="996" ht="16.5" customHeight="1">
+      <c r="A996" s="6"/>
+      <c r="B996" s="6"/>
+      <c r="C996" s="6"/>
+      <c r="D996" s="6"/>
+      <c r="E996" s="6"/>
+      <c r="F996" s="6"/>
+      <c r="G996" s="6"/>
+      <c r="H996" s="6"/>
+      <c r="I996" s="6"/>
+      <c r="J996" s="6"/>
+      <c r="K996" s="6"/>
+      <c r="L996" s="6"/>
+      <c r="M996" s="6"/>
+      <c r="N996" s="6"/>
+      <c r="O996" s="6"/>
+      <c r="P996" s="6"/>
+      <c r="Q996" s="6"/>
+      <c r="R996" s="6"/>
+      <c r="S996" s="6"/>
+      <c r="T996" s="6"/>
+      <c r="U996" s="6"/>
+      <c r="V996" s="6"/>
+      <c r="W996" s="6"/>
+      <c r="X996" s="6"/>
+      <c r="Y996" s="6"/>
+      <c r="Z996" s="6"/>
+    </row>
+    <row r="997" ht="16.5" customHeight="1">
+      <c r="A997" s="6"/>
+      <c r="B997" s="6"/>
+      <c r="C997" s="6"/>
+      <c r="D997" s="6"/>
+      <c r="E997" s="6"/>
+      <c r="F997" s="6"/>
+      <c r="G997" s="6"/>
+      <c r="H997" s="6"/>
+      <c r="I997" s="6"/>
+      <c r="J997" s="6"/>
+      <c r="K997" s="6"/>
+      <c r="L997" s="6"/>
+      <c r="M997" s="6"/>
+      <c r="N997" s="6"/>
+      <c r="O997" s="6"/>
+      <c r="P997" s="6"/>
+      <c r="Q997" s="6"/>
+      <c r="R997" s="6"/>
+      <c r="S997" s="6"/>
+      <c r="T997" s="6"/>
+      <c r="U997" s="6"/>
+      <c r="V997" s="6"/>
+      <c r="W997" s="6"/>
+      <c r="X997" s="6"/>
+      <c r="Y997" s="6"/>
+      <c r="Z997" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="B40:H42"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="B40:H44"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -30204,7 +30259,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="65"/>
       <c r="B4" s="65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -30232,10 +30287,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="65"/>
